--- a/update-mapping-pn13/ig/StructureDefinition-oncofaire-medicationrequest-component.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofaire-medicationrequest-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-30T12:04:27+00:00</t>
+    <t>2024-04-30T12:40:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofaire-medicationrequest-component.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofaire-medicationrequest-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-30T12:40:14+00:00</t>
+    <t>2024-04-30T13:03:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofaire-medicationrequest-component.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofaire-medicationrequest-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-30T13:03:28+00:00</t>
+    <t>2024-04-30T13:09:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofaire-medicationrequest-component.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofaire-medicationrequest-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-30T13:09:54+00:00</t>
+    <t>2024-05-21T14:49:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofaire-medicationrequest-component.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofaire-medicationrequest-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-21T14:49:50+00:00</t>
+    <t>2024-05-21T15:06:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofaire-medicationrequest-component.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofaire-medicationrequest-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-21T15:06:05+00:00</t>
+    <t>2024-05-22T07:46:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofaire-medicationrequest-component.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofaire-medicationrequest-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-22T07:46:44+00:00</t>
+    <t>2024-05-22T08:18:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofaire-medicationrequest-component.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofaire-medicationrequest-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T12:26:46+00:00</t>
+    <t>2024-05-23T14:57:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofaire-medicationrequest-component.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofaire-medicationrequest-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T14:57:19+00:00</t>
+    <t>2024-05-27T07:09:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofaire-medicationrequest-component.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofaire-medicationrequest-component.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4189" uniqueCount="702">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4189" uniqueCount="707">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-27T07:09:09+00:00</t>
+    <t>2024-05-27T09:43:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -78,7 +78,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Is a product that belongs to the nomenclature of medicines used. It may, for example, be a speciality, a product defined by its DC or a pharmacopoeial product.</t>
+    <t>Is a product that belongs to the nomenclature of medicines used. It may, for example, be a speciality, a product defined by its common name or a pharmacopoeial product.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -480,7 +480,11 @@
 </t>
   </si>
   <si>
-    <t>Extension créée dans le cadre d'OncoFAIR</t>
+    <t>Identifier of the ALD for which the component prescribed is prescribed for one of the reasons for which the patient benefits from an exemption under article L324-1 of the CSS.</t>
+  </si>
+  <si>
+    <t>Extension created as part of OncoFAIR containing the notion of exemption. 
+Extension créée dans le cadre d'OncoFAIR contenant la notion d'exonération.</t>
   </si>
   <si>
     <t>MedicationRequest.extension:oncofair-mr-component-solute</t>
@@ -493,6 +497,13 @@
 </t>
   </si>
   <si>
+    <t>True if the component prescribed is solute in the prescription element</t>
+  </si>
+  <si>
+    <t>Extension created as part of OncoFAIR containing the notion of solute. 
+Extension créée dans le cadre d'OncoFAIR contenant la notion de soluté.</t>
+  </si>
+  <si>
     <t>MedicationRequest.extension:oncofair-mr-is-dosage-referent</t>
   </si>
   <si>
@@ -501,6 +512,13 @@
   <si>
     <t xml:space="preserve">Extension {http://ltsi.univ-rennes.fr/StructureDefinition/oncofair-mr-is-dosage-referent}
 </t>
+  </si>
+  <si>
+    <t>True if the component prescribed is the component that refers to the quantity or flow rate expressed in the dosage element when these are gravimetric (for example, mg or mg/h).</t>
+  </si>
+  <si>
+    <t>Extension created as part of OncoFAIR containing the notion of a posology reference. 
+Extension créée dans le cadre d'OncoFAIR contenant la notion de référence posologie.</t>
   </si>
   <si>
     <t>MedicationRequest.modifierExtension</t>
@@ -3688,10 +3706,10 @@
         <v>147</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -3777,13 +3795,13 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>137</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>80</v>
@@ -3805,13 +3823,13 @@
         <v>80</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -3897,13 +3915,13 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>137</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D12" t="s" s="2">
         <v>80</v>
@@ -3925,13 +3943,13 @@
         <v>80</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -4017,14 +4035,14 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -4046,16 +4064,16 @@
         <v>138</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>80</v>
@@ -4104,7 +4122,7 @@
         <v>80</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>78</v>
@@ -4139,10 +4157,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -4165,16 +4183,16 @@
         <v>80</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -4224,7 +4242,7 @@
         <v>80</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -4242,27 +4260,27 @@
         <v>80</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="AP14" t="s" s="2">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -4285,13 +4303,13 @@
         <v>92</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -4342,7 +4360,7 @@
         <v>80</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>78</v>
@@ -4357,10 +4375,10 @@
         <v>103</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>80</v>
@@ -4369,7 +4387,7 @@
         <v>80</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="AP15" t="s" s="2">
         <v>80</v>
@@ -4377,10 +4395,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -4403,13 +4421,13 @@
         <v>80</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -4460,7 +4478,7 @@
         <v>80</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
@@ -4478,16 +4496,16 @@
         <v>80</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="AP16" t="s" s="2">
         <v>80</v>
@@ -4495,10 +4513,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4521,17 +4539,17 @@
         <v>92</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>80</v>
@@ -4580,7 +4598,7 @@
         <v>80</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
@@ -4598,7 +4616,7 @@
         <v>80</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>80</v>
@@ -4607,7 +4625,7 @@
         <v>80</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="AP17" t="s" s="2">
         <v>80</v>
@@ -4615,10 +4633,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4644,13 +4662,13 @@
         <v>111</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -4679,28 +4697,28 @@
         <v>115</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="Z18" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF18" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="AA18" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>91</v>
@@ -4718,16 +4736,16 @@
         <v>80</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="AP18" t="s" s="2">
         <v>80</v>
@@ -4735,10 +4753,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4761,16 +4779,16 @@
         <v>80</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -4796,31 +4814,31 @@
         <v>80</v>
       </c>
       <c r="X19" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="Y19" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="Z19" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF19" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="Y19" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="Z19" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="AA19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -4838,7 +4856,7 @@
         <v>80</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>80</v>
@@ -4847,7 +4865,7 @@
         <v>80</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="AP19" t="s" s="2">
         <v>80</v>
@@ -4855,10 +4873,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4881,13 +4899,13 @@
         <v>80</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4938,7 +4956,7 @@
         <v>80</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
@@ -4965,7 +4983,7 @@
         <v>80</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="AP20" t="s" s="2">
         <v>80</v>
@@ -4973,10 +4991,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -5002,13 +5020,13 @@
         <v>111</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -5037,28 +5055,28 @@
         <v>115</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="Z21" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF21" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="AA21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>91</v>
@@ -5076,16 +5094,16 @@
         <v>80</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="AP21" t="s" s="2">
         <v>80</v>
@@ -5093,10 +5111,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -5119,16 +5137,16 @@
         <v>80</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -5154,31 +5172,31 @@
         <v>80</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="Z22" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF22" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -5199,13 +5217,13 @@
         <v>80</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>80</v>
@@ -5213,10 +5231,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -5242,10 +5260,10 @@
         <v>111</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -5275,10 +5293,10 @@
         <v>115</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>80</v>
@@ -5296,7 +5314,7 @@
         <v>80</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
@@ -5314,16 +5332,16 @@
         <v>80</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>80</v>
@@ -5331,10 +5349,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -5357,16 +5375,16 @@
         <v>92</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -5416,7 +5434,7 @@
         <v>80</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -5443,7 +5461,7 @@
         <v>80</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="AP24" t="s" s="2">
         <v>80</v>
@@ -5451,10 +5469,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5477,16 +5495,16 @@
         <v>92</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -5512,31 +5530,31 @@
         <v>80</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="Y25" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="Z25" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF25" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="Z25" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF25" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>91</v>
@@ -5551,30 +5569,30 @@
         <v>103</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="AP25" t="s" s="2">
-        <v>260</v>
+        <v>265</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5597,16 +5615,16 @@
         <v>92</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -5656,7 +5674,7 @@
         <v>80</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>91</v>
@@ -5674,27 +5692,27 @@
         <v>80</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="AP26" t="s" s="2">
-        <v>270</v>
+        <v>275</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5717,13 +5735,13 @@
         <v>80</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -5774,7 +5792,7 @@
         <v>80</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -5801,7 +5819,7 @@
         <v>80</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="AP27" t="s" s="2">
         <v>80</v>
@@ -5809,10 +5827,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5835,16 +5853,16 @@
         <v>80</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5894,7 +5912,7 @@
         <v>80</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
@@ -5912,27 +5930,27 @@
         <v>80</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="AP28" t="s" s="2">
-        <v>284</v>
+        <v>289</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5955,16 +5973,16 @@
         <v>80</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -6014,7 +6032,7 @@
         <v>80</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -6032,16 +6050,16 @@
         <v>80</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="AP29" t="s" s="2">
         <v>80</v>
@@ -6049,10 +6067,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -6075,13 +6093,13 @@
         <v>92</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -6132,7 +6150,7 @@
         <v>80</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -6150,27 +6168,27 @@
         <v>80</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="AP30" t="s" s="2">
-        <v>299</v>
+        <v>304</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -6193,13 +6211,13 @@
         <v>92</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -6250,7 +6268,7 @@
         <v>80</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -6268,16 +6286,16 @@
         <v>80</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="AP31" t="s" s="2">
         <v>80</v>
@@ -6285,10 +6303,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6311,16 +6329,16 @@
         <v>92</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -6370,7 +6388,7 @@
         <v>80</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -6397,7 +6415,7 @@
         <v>80</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="AP32" t="s" s="2">
         <v>80</v>
@@ -6405,10 +6423,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6431,16 +6449,16 @@
         <v>92</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -6466,31 +6484,31 @@
         <v>80</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="Y33" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="Z33" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF33" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="Z33" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="AA33" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>311</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
@@ -6508,7 +6526,7 @@
         <v>80</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>80</v>
@@ -6517,7 +6535,7 @@
         <v>80</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="AP33" t="s" s="2">
         <v>80</v>
@@ -6525,10 +6543,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6551,13 +6569,13 @@
         <v>80</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -6608,7 +6626,7 @@
         <v>80</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -6626,16 +6644,16 @@
         <v>80</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="AP34" t="s" s="2">
         <v>80</v>
@@ -6643,10 +6661,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6669,13 +6687,13 @@
         <v>80</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -6726,7 +6744,7 @@
         <v>80</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -6753,7 +6771,7 @@
         <v>80</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="AP35" t="s" s="2">
         <v>80</v>
@@ -6761,10 +6779,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6787,13 +6805,13 @@
         <v>80</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -6844,7 +6862,7 @@
         <v>80</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -6868,10 +6886,10 @@
         <v>80</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="AP36" t="s" s="2">
         <v>80</v>
@@ -6879,10 +6897,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6905,16 +6923,16 @@
         <v>80</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6940,31 +6958,31 @@
         <v>80</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="Y37" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="Z37" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF37" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="Z37" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="AA37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF37" t="s" s="2">
-        <v>337</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -6982,27 +7000,27 @@
         <v>80</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="AP37" t="s" s="2">
-        <v>348</v>
+        <v>353</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -7025,16 +7043,16 @@
         <v>80</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -7060,31 +7078,31 @@
         <v>80</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="Z38" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF38" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="AA38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF38" t="s" s="2">
-        <v>349</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -7111,7 +7129,7 @@
         <v>80</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="AP38" t="s" s="2">
         <v>80</v>
@@ -7119,10 +7137,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -7145,13 +7163,13 @@
         <v>80</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -7202,7 +7220,7 @@
         <v>80</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -7220,7 +7238,7 @@
         <v>80</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>80</v>
@@ -7229,7 +7247,7 @@
         <v>80</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="AP39" t="s" s="2">
         <v>80</v>
@@ -7237,10 +7255,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -7263,13 +7281,13 @@
         <v>80</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -7308,7 +7326,7 @@
         <v>80</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="AC40" s="2"/>
       <c r="AD40" t="s" s="2">
@@ -7318,7 +7336,7 @@
         <v>142</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -7336,16 +7354,16 @@
         <v>80</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="AP40" t="s" s="2">
         <v>80</v>
@@ -7353,13 +7371,13 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="D41" t="s" s="2">
         <v>80</v>
@@ -7381,13 +7399,13 @@
         <v>80</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -7438,7 +7456,7 @@
         <v>80</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -7453,19 +7471,19 @@
         <v>103</v>
       </c>
       <c r="AK41" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AM41" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="AL41" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>368</v>
-      </c>
       <c r="AN41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="AP41" t="s" s="2">
         <v>80</v>
@@ -7473,10 +7491,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7502,10 +7520,10 @@
         <v>93</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -7517,7 +7535,7 @@
         <v>80</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="T42" t="s" s="2">
         <v>80</v>
@@ -7556,7 +7574,7 @@
         <v>80</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -7565,7 +7583,7 @@
         <v>91</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>80</v>
@@ -7583,7 +7601,7 @@
         <v>80</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="AP42" t="s" s="2">
         <v>80</v>
@@ -7591,14 +7609,14 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -7620,13 +7638,13 @@
         <v>138</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -7667,7 +7685,7 @@
         <v>141</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="AD43" t="s" s="2">
         <v>80</v>
@@ -7676,7 +7694,7 @@
         <v>142</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -7703,7 +7721,7 @@
         <v>80</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="AP43" t="s" s="2">
         <v>80</v>
@@ -7711,10 +7729,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7737,16 +7755,16 @@
         <v>92</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7796,7 +7814,7 @@
         <v>80</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -7823,7 +7841,7 @@
         <v>80</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="AP44" t="s" s="2">
         <v>136</v>
@@ -7831,10 +7849,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7857,13 +7875,13 @@
         <v>92</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7914,7 +7932,7 @@
         <v>80</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -7941,7 +7959,7 @@
         <v>80</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="AP45" t="s" s="2">
         <v>136</v>
@@ -7949,10 +7967,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7975,13 +7993,13 @@
         <v>92</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -8032,7 +8050,7 @@
         <v>80</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>91</v>
@@ -8059,7 +8077,7 @@
         <v>80</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="AP46" t="s" s="2">
         <v>136</v>
@@ -8067,13 +8085,13 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="D47" t="s" s="2">
         <v>80</v>
@@ -8095,13 +8113,13 @@
         <v>80</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -8152,7 +8170,7 @@
         <v>80</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -8167,19 +8185,19 @@
         <v>103</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="AP47" t="s" s="2">
         <v>80</v>
@@ -8187,10 +8205,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8216,10 +8234,10 @@
         <v>93</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -8231,7 +8249,7 @@
         <v>80</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="T48" t="s" s="2">
         <v>80</v>
@@ -8270,7 +8288,7 @@
         <v>80</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -8279,7 +8297,7 @@
         <v>91</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>80</v>
@@ -8297,7 +8315,7 @@
         <v>80</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="AP48" t="s" s="2">
         <v>80</v>
@@ -8305,14 +8323,14 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -8334,13 +8352,13 @@
         <v>138</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -8381,7 +8399,7 @@
         <v>141</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="AD49" t="s" s="2">
         <v>80</v>
@@ -8390,7 +8408,7 @@
         <v>142</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -8417,7 +8435,7 @@
         <v>80</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="AP49" t="s" s="2">
         <v>80</v>
@@ -8425,10 +8443,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8451,16 +8469,16 @@
         <v>92</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -8510,7 +8528,7 @@
         <v>80</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
@@ -8537,7 +8555,7 @@
         <v>80</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="AP50" t="s" s="2">
         <v>136</v>
@@ -8545,10 +8563,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8571,13 +8589,13 @@
         <v>92</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -8628,7 +8646,7 @@
         <v>80</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -8655,7 +8673,7 @@
         <v>80</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="AP51" t="s" s="2">
         <v>136</v>
@@ -8663,10 +8681,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8689,13 +8707,13 @@
         <v>92</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -8746,7 +8764,7 @@
         <v>80</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>91</v>
@@ -8773,7 +8791,7 @@
         <v>80</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="AP52" t="s" s="2">
         <v>136</v>
@@ -8781,13 +8799,13 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="D53" t="s" s="2">
         <v>80</v>
@@ -8809,13 +8827,13 @@
         <v>80</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -8866,7 +8884,7 @@
         <v>80</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -8881,19 +8899,19 @@
         <v>103</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="AP53" t="s" s="2">
         <v>80</v>
@@ -8901,10 +8919,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8930,10 +8948,10 @@
         <v>93</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8945,7 +8963,7 @@
         <v>80</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="T54" t="s" s="2">
         <v>80</v>
@@ -8984,7 +9002,7 @@
         <v>80</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -8993,7 +9011,7 @@
         <v>91</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>80</v>
@@ -9011,7 +9029,7 @@
         <v>80</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="AP54" t="s" s="2">
         <v>80</v>
@@ -9019,14 +9037,14 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -9048,13 +9066,13 @@
         <v>138</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -9095,7 +9113,7 @@
         <v>141</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="AD55" t="s" s="2">
         <v>80</v>
@@ -9104,7 +9122,7 @@
         <v>142</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -9131,7 +9149,7 @@
         <v>80</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="AP55" t="s" s="2">
         <v>80</v>
@@ -9139,10 +9157,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9165,16 +9183,16 @@
         <v>92</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -9224,7 +9242,7 @@
         <v>80</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -9251,7 +9269,7 @@
         <v>80</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="AP56" t="s" s="2">
         <v>136</v>
@@ -9259,10 +9277,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9285,13 +9303,13 @@
         <v>92</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -9342,7 +9360,7 @@
         <v>80</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -9369,7 +9387,7 @@
         <v>80</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="AP57" t="s" s="2">
         <v>136</v>
@@ -9377,10 +9395,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9403,13 +9421,13 @@
         <v>92</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -9460,7 +9478,7 @@
         <v>80</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>91</v>
@@ -9487,7 +9505,7 @@
         <v>80</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="AP58" t="s" s="2">
         <v>136</v>
@@ -9495,10 +9513,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9521,17 +9539,17 @@
         <v>80</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>80</v>
@@ -9580,7 +9598,7 @@
         <v>80</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -9607,7 +9625,7 @@
         <v>80</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="AP59" t="s" s="2">
         <v>80</v>
@@ -9615,10 +9633,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9641,13 +9659,13 @@
         <v>80</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -9698,7 +9716,7 @@
         <v>80</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
@@ -9725,7 +9743,7 @@
         <v>80</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="AP60" t="s" s="2">
         <v>80</v>
@@ -9733,10 +9751,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9759,16 +9777,16 @@
         <v>80</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -9818,7 +9836,7 @@
         <v>80</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
@@ -9845,7 +9863,7 @@
         <v>80</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="AP61" t="s" s="2">
         <v>80</v>
@@ -9853,10 +9871,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9882,10 +9900,10 @@
         <v>93</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9936,7 +9954,7 @@
         <v>80</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -9945,7 +9963,7 @@
         <v>91</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>80</v>
@@ -9963,7 +9981,7 @@
         <v>80</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="AP62" t="s" s="2">
         <v>80</v>
@@ -9971,14 +9989,14 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -10000,13 +10018,13 @@
         <v>138</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -10047,7 +10065,7 @@
         <v>141</v>
       </c>
       <c r="AC63" t="s" s="2">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="AD63" t="s" s="2">
         <v>80</v>
@@ -10056,7 +10074,7 @@
         <v>142</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
@@ -10083,7 +10101,7 @@
         <v>80</v>
       </c>
       <c r="AO63" t="s" s="2">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="AP63" t="s" s="2">
         <v>80</v>
@@ -10091,14 +10109,14 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -10120,16 +10138,16 @@
         <v>138</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>80</v>
@@ -10178,7 +10196,7 @@
         <v>80</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -10213,10 +10231,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10239,17 +10257,17 @@
         <v>92</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>80</v>
@@ -10298,7 +10316,7 @@
         <v>80</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
@@ -10325,18 +10343,18 @@
         <v>80</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="AP65" t="s" s="2">
-        <v>455</v>
+        <v>460</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10359,17 +10377,17 @@
         <v>92</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>80</v>
@@ -10418,7 +10436,7 @@
         <v>80</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
@@ -10445,18 +10463,18 @@
         <v>80</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="AP66" t="s" s="2">
-        <v>462</v>
+        <v>467</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10479,19 +10497,19 @@
         <v>92</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>80</v>
@@ -10516,13 +10534,13 @@
         <v>80</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>80</v>
@@ -10540,7 +10558,7 @@
         <v>80</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
@@ -10567,18 +10585,18 @@
         <v>80</v>
       </c>
       <c r="AO67" t="s" s="2">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="AP67" t="s" s="2">
-        <v>471</v>
+        <v>476</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10601,13 +10619,13 @@
         <v>92</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -10658,7 +10676,7 @@
         <v>80</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
@@ -10685,18 +10703,18 @@
         <v>80</v>
       </c>
       <c r="AO68" t="s" s="2">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="AP68" t="s" s="2">
-        <v>471</v>
+        <v>476</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10719,19 +10737,19 @@
         <v>92</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="O69" t="s" s="2">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>80</v>
@@ -10780,7 +10798,7 @@
         <v>80</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
@@ -10807,7 +10825,7 @@
         <v>80</v>
       </c>
       <c r="AO69" t="s" s="2">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="AP69" t="s" s="2">
         <v>80</v>
@@ -10815,10 +10833,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10841,16 +10859,16 @@
         <v>92</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -10900,7 +10918,7 @@
         <v>80</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
@@ -10909,7 +10927,7 @@
         <v>91</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>103</v>
@@ -10927,18 +10945,18 @@
         <v>80</v>
       </c>
       <c r="AO70" t="s" s="2">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="AP70" t="s" s="2">
-        <v>491</v>
+        <v>496</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10961,16 +10979,16 @@
         <v>92</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -10996,13 +11014,13 @@
         <v>80</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>80</v>
@@ -11020,7 +11038,7 @@
         <v>80</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
@@ -11029,7 +11047,7 @@
         <v>79</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>103</v>
@@ -11047,18 +11065,18 @@
         <v>80</v>
       </c>
       <c r="AO71" t="s" s="2">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="AP71" t="s" s="2">
-        <v>491</v>
+        <v>496</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -11081,19 +11099,19 @@
         <v>92</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>80</v>
@@ -11118,13 +11136,13 @@
         <v>80</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>80</v>
@@ -11142,7 +11160,7 @@
         <v>80</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
@@ -11169,18 +11187,18 @@
         <v>80</v>
       </c>
       <c r="AO72" t="s" s="2">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="AP72" t="s" s="2">
-        <v>508</v>
+        <v>513</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11203,17 +11221,17 @@
         <v>92</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>80</v>
@@ -11238,13 +11256,13 @@
         <v>80</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>80</v>
@@ -11262,7 +11280,7 @@
         <v>80</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
@@ -11289,18 +11307,18 @@
         <v>80</v>
       </c>
       <c r="AO73" t="s" s="2">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="AP73" t="s" s="2">
-        <v>517</v>
+        <v>522</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11323,19 +11341,19 @@
         <v>92</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>80</v>
@@ -11360,13 +11378,13 @@
         <v>80</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>80</v>
@@ -11384,7 +11402,7 @@
         <v>80</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
@@ -11411,18 +11429,18 @@
         <v>80</v>
       </c>
       <c r="AO74" t="s" s="2">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="AP74" t="s" s="2">
-        <v>527</v>
+        <v>532</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11445,13 +11463,13 @@
         <v>92</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -11502,7 +11520,7 @@
         <v>80</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>78</v>
@@ -11529,18 +11547,18 @@
         <v>80</v>
       </c>
       <c r="AO75" t="s" s="2">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="AP75" t="s" s="2">
-        <v>534</v>
+        <v>539</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11563,13 +11581,13 @@
         <v>80</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -11620,7 +11638,7 @@
         <v>80</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>78</v>
@@ -11629,7 +11647,7 @@
         <v>91</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>80</v>
@@ -11647,7 +11665,7 @@
         <v>80</v>
       </c>
       <c r="AO76" t="s" s="2">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="AP76" t="s" s="2">
         <v>80</v>
@@ -11655,14 +11673,14 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
@@ -11684,13 +11702,13 @@
         <v>138</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
@@ -11731,7 +11749,7 @@
         <v>141</v>
       </c>
       <c r="AC77" t="s" s="2">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="AD77" t="s" s="2">
         <v>80</v>
@@ -11740,7 +11758,7 @@
         <v>142</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>78</v>
@@ -11767,7 +11785,7 @@
         <v>80</v>
       </c>
       <c r="AO77" t="s" s="2">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="AP77" t="s" s="2">
         <v>80</v>
@@ -11775,10 +11793,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11801,17 +11819,17 @@
         <v>92</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>80</v>
@@ -11836,13 +11854,13 @@
         <v>80</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>80</v>
@@ -11860,7 +11878,7 @@
         <v>80</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>78</v>
@@ -11890,15 +11908,15 @@
         <v>80</v>
       </c>
       <c r="AP78" t="s" s="2">
-        <v>544</v>
+        <v>549</v>
       </c>
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11921,19 +11939,19 @@
         <v>92</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>80</v>
@@ -11970,17 +11988,17 @@
         <v>80</v>
       </c>
       <c r="AB79" t="s" s="2">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="AC79" s="2"/>
       <c r="AD79" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>78</v>
@@ -12007,21 +12025,21 @@
         <v>80</v>
       </c>
       <c r="AO79" t="s" s="2">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="AP79" t="s" s="2">
-        <v>555</v>
+        <v>560</v>
       </c>
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="D80" t="s" s="2">
         <v>80</v>
@@ -12043,19 +12061,19 @@
         <v>80</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>80</v>
@@ -12104,7 +12122,7 @@
         <v>80</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>78</v>
@@ -12116,10 +12134,10 @@
         <v>80</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>80</v>
@@ -12131,18 +12149,18 @@
         <v>80</v>
       </c>
       <c r="AO80" t="s" s="2">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="AP80" t="s" s="2">
-        <v>564</v>
+        <v>569</v>
       </c>
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>565</v>
+        <v>570</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>565</v>
+        <v>570</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12165,19 +12183,19 @@
         <v>92</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>80</v>
@@ -12226,7 +12244,7 @@
         <v>80</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>78</v>
@@ -12253,18 +12271,18 @@
         <v>80</v>
       </c>
       <c r="AO81" t="s" s="2">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="AP81" t="s" s="2">
-        <v>573</v>
+        <v>578</v>
       </c>
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12287,19 +12305,19 @@
         <v>92</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>578</v>
+        <v>583</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>579</v>
+        <v>584</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>80</v>
@@ -12348,7 +12366,7 @@
         <v>80</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>580</v>
+        <v>585</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>78</v>
@@ -12375,18 +12393,18 @@
         <v>80</v>
       </c>
       <c r="AO82" t="s" s="2">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="AP82" t="s" s="2">
-        <v>582</v>
+        <v>587</v>
       </c>
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12409,19 +12427,19 @@
         <v>92</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="O83" t="s" s="2">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>80</v>
@@ -12470,7 +12488,7 @@
         <v>80</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>78</v>
@@ -12497,7 +12515,7 @@
         <v>80</v>
       </c>
       <c r="AO83" t="s" s="2">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="AP83" t="s" s="2">
         <v>80</v>
@@ -12505,10 +12523,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12531,17 +12549,17 @@
         <v>92</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>80</v>
@@ -12590,7 +12608,7 @@
         <v>80</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>78</v>
@@ -12617,7 +12635,7 @@
         <v>80</v>
       </c>
       <c r="AO84" t="s" s="2">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="AP84" t="s" s="2">
         <v>80</v>
@@ -12625,10 +12643,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12651,13 +12669,13 @@
         <v>80</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -12708,7 +12726,7 @@
         <v>80</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>78</v>
@@ -12729,13 +12747,13 @@
         <v>80</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO85" t="s" s="2">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="AP85" t="s" s="2">
         <v>80</v>
@@ -12743,10 +12761,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12769,13 +12787,13 @@
         <v>80</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
@@ -12826,7 +12844,7 @@
         <v>80</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>78</v>
@@ -12835,7 +12853,7 @@
         <v>91</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>80</v>
@@ -12853,7 +12871,7 @@
         <v>80</v>
       </c>
       <c r="AO86" t="s" s="2">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="AP86" t="s" s="2">
         <v>80</v>
@@ -12861,14 +12879,14 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
@@ -12890,13 +12908,13 @@
         <v>138</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
@@ -12946,7 +12964,7 @@
         <v>80</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>78</v>
@@ -12973,7 +12991,7 @@
         <v>80</v>
       </c>
       <c r="AO87" t="s" s="2">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="AP87" t="s" s="2">
         <v>80</v>
@@ -12981,14 +12999,14 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
@@ -13010,16 +13028,16 @@
         <v>138</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>80</v>
@@ -13068,7 +13086,7 @@
         <v>80</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>78</v>
@@ -13103,10 +13121,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13129,16 +13147,16 @@
         <v>80</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
@@ -13188,7 +13206,7 @@
         <v>80</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>78</v>
@@ -13215,7 +13233,7 @@
         <v>80</v>
       </c>
       <c r="AO89" t="s" s="2">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="AP89" t="s" s="2">
         <v>80</v>
@@ -13223,10 +13241,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13249,13 +13267,13 @@
         <v>80</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
@@ -13306,7 +13324,7 @@
         <v>80</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>78</v>
@@ -13315,7 +13333,7 @@
         <v>91</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="AJ90" t="s" s="2">
         <v>80</v>
@@ -13333,7 +13351,7 @@
         <v>80</v>
       </c>
       <c r="AO90" t="s" s="2">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="AP90" t="s" s="2">
         <v>80</v>
@@ -13341,14 +13359,14 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
@@ -13370,13 +13388,13 @@
         <v>138</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
@@ -13426,7 +13444,7 @@
         <v>80</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>78</v>
@@ -13453,7 +13471,7 @@
         <v>80</v>
       </c>
       <c r="AO91" t="s" s="2">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="AP91" t="s" s="2">
         <v>80</v>
@@ -13461,14 +13479,14 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>612</v>
+        <v>617</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>612</v>
+        <v>617</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
@@ -13490,16 +13508,16 @@
         <v>138</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="O92" t="s" s="2">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>80</v>
@@ -13548,7 +13566,7 @@
         <v>80</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>78</v>
@@ -13583,10 +13601,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>613</v>
+        <v>618</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>613</v>
+        <v>618</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13609,13 +13627,13 @@
         <v>80</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>614</v>
+        <v>619</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>615</v>
+        <v>620</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
@@ -13666,7 +13684,7 @@
         <v>80</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>613</v>
+        <v>618</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>78</v>
@@ -13693,7 +13711,7 @@
         <v>80</v>
       </c>
       <c r="AO93" t="s" s="2">
-        <v>616</v>
+        <v>621</v>
       </c>
       <c r="AP93" t="s" s="2">
         <v>80</v>
@@ -13701,10 +13719,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>617</v>
+        <v>622</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>617</v>
+        <v>622</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13727,13 +13745,13 @@
         <v>80</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>618</v>
+        <v>623</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>619</v>
+        <v>624</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
@@ -13784,7 +13802,7 @@
         <v>80</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>617</v>
+        <v>622</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>78</v>
@@ -13811,7 +13829,7 @@
         <v>80</v>
       </c>
       <c r="AO94" t="s" s="2">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="AP94" t="s" s="2">
         <v>80</v>
@@ -13819,10 +13837,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>622</v>
+        <v>627</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>622</v>
+        <v>627</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13845,13 +13863,13 @@
         <v>80</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>618</v>
+        <v>623</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
@@ -13902,7 +13920,7 @@
         <v>80</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>622</v>
+        <v>627</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>78</v>
@@ -13929,7 +13947,7 @@
         <v>80</v>
       </c>
       <c r="AO95" t="s" s="2">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="AP95" t="s" s="2">
         <v>80</v>
@@ -13937,10 +13955,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13963,19 +13981,19 @@
         <v>80</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>626</v>
+        <v>631</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>627</v>
+        <v>632</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>628</v>
+        <v>633</v>
       </c>
       <c r="O96" t="s" s="2">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="P96" t="s" s="2">
         <v>80</v>
@@ -14024,7 +14042,7 @@
         <v>80</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>78</v>
@@ -14045,13 +14063,13 @@
         <v>80</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO96" t="s" s="2">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="AP96" t="s" s="2">
         <v>80</v>
@@ -14059,10 +14077,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>632</v>
+        <v>637</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>632</v>
+        <v>637</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -14085,16 +14103,16 @@
         <v>80</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>633</v>
+        <v>638</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>634</v>
+        <v>639</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>635</v>
+        <v>640</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
@@ -14144,7 +14162,7 @@
         <v>80</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>632</v>
+        <v>637</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>78</v>
@@ -14165,24 +14183,24 @@
         <v>80</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO97" t="s" s="2">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="AP97" t="s" s="2">
-        <v>639</v>
+        <v>644</v>
       </c>
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>640</v>
+        <v>645</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>640</v>
+        <v>645</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14205,13 +14223,13 @@
         <v>80</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>641</v>
+        <v>646</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>642</v>
+        <v>647</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" s="2"/>
@@ -14262,7 +14280,7 @@
         <v>80</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>640</v>
+        <v>645</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>78</v>
@@ -14283,24 +14301,24 @@
         <v>80</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>643</v>
+        <v>648</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO98" t="s" s="2">
-        <v>644</v>
+        <v>649</v>
       </c>
       <c r="AP98" t="s" s="2">
-        <v>645</v>
+        <v>650</v>
       </c>
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14323,16 +14341,16 @@
         <v>80</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>618</v>
+        <v>623</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>647</v>
+        <v>652</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>648</v>
+        <v>653</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>649</v>
+        <v>654</v>
       </c>
       <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
@@ -14382,7 +14400,7 @@
         <v>80</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>78</v>
@@ -14403,13 +14421,13 @@
         <v>80</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>650</v>
+        <v>655</v>
       </c>
       <c r="AN99" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO99" t="s" s="2">
-        <v>651</v>
+        <v>656</v>
       </c>
       <c r="AP99" t="s" s="2">
         <v>80</v>
@@ -14417,10 +14435,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>652</v>
+        <v>657</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>652</v>
+        <v>657</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14443,13 +14461,13 @@
         <v>80</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>653</v>
+        <v>658</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>654</v>
+        <v>659</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>655</v>
+        <v>660</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" s="2"/>
@@ -14500,7 +14518,7 @@
         <v>80</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>652</v>
+        <v>657</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>78</v>
@@ -14524,10 +14542,10 @@
         <v>80</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="AO100" t="s" s="2">
-        <v>656</v>
+        <v>661</v>
       </c>
       <c r="AP100" t="s" s="2">
         <v>80</v>
@@ -14535,10 +14553,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>657</v>
+        <v>662</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>657</v>
+        <v>662</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14561,13 +14579,13 @@
         <v>80</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>658</v>
+        <v>663</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>659</v>
+        <v>664</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" s="2"/>
@@ -14618,7 +14636,7 @@
         <v>80</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>657</v>
+        <v>662</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>78</v>
@@ -14645,7 +14663,7 @@
         <v>80</v>
       </c>
       <c r="AO101" t="s" s="2">
-        <v>660</v>
+        <v>665</v>
       </c>
       <c r="AP101" t="s" s="2">
         <v>80</v>
@@ -14653,10 +14671,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>661</v>
+        <v>666</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>661</v>
+        <v>666</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14679,13 +14697,13 @@
         <v>80</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>662</v>
+        <v>667</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>663</v>
+        <v>668</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
@@ -14712,11 +14730,11 @@
         <v>80</v>
       </c>
       <c r="X102" t="s" s="2">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="Y102" s="2"/>
       <c r="Z102" t="s" s="2">
-        <v>664</v>
+        <v>669</v>
       </c>
       <c r="AA102" t="s" s="2">
         <v>80</v>
@@ -14734,7 +14752,7 @@
         <v>80</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>661</v>
+        <v>666</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>78</v>
@@ -14761,7 +14779,7 @@
         <v>80</v>
       </c>
       <c r="AO102" t="s" s="2">
-        <v>665</v>
+        <v>670</v>
       </c>
       <c r="AP102" t="s" s="2">
         <v>80</v>
@@ -14769,10 +14787,10 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>666</v>
+        <v>671</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>666</v>
+        <v>671</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14795,13 +14813,13 @@
         <v>80</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>667</v>
+        <v>672</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>668</v>
+        <v>673</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" s="2"/>
@@ -14852,7 +14870,7 @@
         <v>80</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>666</v>
+        <v>671</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>78</v>
@@ -14873,13 +14891,13 @@
         <v>80</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>669</v>
+        <v>674</v>
       </c>
       <c r="AN103" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO103" t="s" s="2">
-        <v>670</v>
+        <v>675</v>
       </c>
       <c r="AP103" t="s" s="2">
         <v>80</v>
@@ -14887,10 +14905,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>671</v>
+        <v>676</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>671</v>
+        <v>676</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14913,13 +14931,13 @@
         <v>80</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" s="2"/>
@@ -14970,7 +14988,7 @@
         <v>80</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>78</v>
@@ -14979,7 +14997,7 @@
         <v>91</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="AJ104" t="s" s="2">
         <v>80</v>
@@ -14997,7 +15015,7 @@
         <v>80</v>
       </c>
       <c r="AO104" t="s" s="2">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="AP104" t="s" s="2">
         <v>80</v>
@@ -15005,14 +15023,14 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>672</v>
+        <v>677</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>672</v>
+        <v>677</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" t="s" s="2">
@@ -15034,13 +15052,13 @@
         <v>138</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="O105" s="2"/>
       <c r="P105" t="s" s="2">
@@ -15090,7 +15108,7 @@
         <v>80</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>78</v>
@@ -15117,7 +15135,7 @@
         <v>80</v>
       </c>
       <c r="AO105" t="s" s="2">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="AP105" t="s" s="2">
         <v>80</v>
@@ -15125,14 +15143,14 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>673</v>
+        <v>678</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>673</v>
+        <v>678</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" t="s" s="2">
@@ -15154,16 +15172,16 @@
         <v>138</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="O106" t="s" s="2">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="P106" t="s" s="2">
         <v>80</v>
@@ -15212,7 +15230,7 @@
         <v>80</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>78</v>
@@ -15247,10 +15265,10 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>674</v>
+        <v>679</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>674</v>
+        <v>679</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -15273,16 +15291,16 @@
         <v>80</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>675</v>
+        <v>680</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>676</v>
+        <v>681</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>677</v>
+        <v>682</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="O107" s="2"/>
       <c r="P107" t="s" s="2">
@@ -15308,19 +15326,19 @@
         <v>80</v>
       </c>
       <c r="X107" t="s" s="2">
-        <v>679</v>
+        <v>684</v>
       </c>
       <c r="Y107" t="s" s="2">
-        <v>680</v>
+        <v>685</v>
       </c>
       <c r="Z107" t="s" s="2">
-        <v>681</v>
+        <v>686</v>
       </c>
       <c r="AA107" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB107" t="s" s="2">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="AC107" s="2"/>
       <c r="AD107" t="s" s="2">
@@ -15330,7 +15348,7 @@
         <v>142</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>674</v>
+        <v>679</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>91</v>
@@ -15351,27 +15369,27 @@
         <v>80</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>669</v>
+        <v>674</v>
       </c>
       <c r="AN107" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO107" t="s" s="2">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="AP107" t="s" s="2">
-        <v>683</v>
+        <v>688</v>
       </c>
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>674</v>
+        <v>679</v>
       </c>
       <c r="C108" t="s" s="2">
-        <v>685</v>
+        <v>690</v>
       </c>
       <c r="D108" t="s" s="2">
         <v>80</v>
@@ -15393,16 +15411,16 @@
         <v>80</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>686</v>
+        <v>691</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>677</v>
+        <v>682</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="O108" s="2"/>
       <c r="P108" t="s" s="2">
@@ -15452,7 +15470,7 @@
         <v>80</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>674</v>
+        <v>679</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>91</v>
@@ -15467,30 +15485,30 @@
         <v>103</v>
       </c>
       <c r="AK108" t="s" s="2">
+        <v>692</v>
+      </c>
+      <c r="AL108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM108" t="s" s="2">
+        <v>674</v>
+      </c>
+      <c r="AN108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO108" t="s" s="2">
         <v>687</v>
       </c>
-      <c r="AL108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM108" t="s" s="2">
-        <v>669</v>
-      </c>
-      <c r="AN108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO108" t="s" s="2">
-        <v>682</v>
-      </c>
       <c r="AP108" t="s" s="2">
-        <v>683</v>
+        <v>688</v>
       </c>
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>688</v>
+        <v>693</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>688</v>
+        <v>693</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -15513,13 +15531,13 @@
         <v>80</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>689</v>
+        <v>694</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>690</v>
+        <v>695</v>
       </c>
       <c r="N109" s="2"/>
       <c r="O109" s="2"/>
@@ -15546,13 +15564,13 @@
         <v>80</v>
       </c>
       <c r="X109" t="s" s="2">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="Y109" t="s" s="2">
-        <v>691</v>
+        <v>696</v>
       </c>
       <c r="Z109" t="s" s="2">
-        <v>692</v>
+        <v>697</v>
       </c>
       <c r="AA109" t="s" s="2">
         <v>80</v>
@@ -15570,7 +15588,7 @@
         <v>80</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>688</v>
+        <v>693</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>78</v>
@@ -15591,24 +15609,24 @@
         <v>80</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="AN109" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO109" t="s" s="2">
-        <v>693</v>
+        <v>698</v>
       </c>
       <c r="AP109" t="s" s="2">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15631,16 +15649,16 @@
         <v>80</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>696</v>
+        <v>701</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>697</v>
+        <v>702</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>698</v>
+        <v>703</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>699</v>
+        <v>704</v>
       </c>
       <c r="O110" s="2"/>
       <c r="P110" t="s" s="2">
@@ -15690,7 +15708,7 @@
         <v>80</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>78</v>
@@ -15708,7 +15726,7 @@
         <v>80</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>700</v>
+        <v>705</v>
       </c>
       <c r="AM110" t="s" s="2">
         <v>80</v>
@@ -15717,7 +15735,7 @@
         <v>80</v>
       </c>
       <c r="AO110" t="s" s="2">
-        <v>701</v>
+        <v>706</v>
       </c>
       <c r="AP110" t="s" s="2">
         <v>80</v>
